--- a/拓展实践.xlsx
+++ b/拓展实践.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{379E853E-4ECE-2942-A369-617487A2D9F9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{C3EF9ED8-605E-234A-8FAF-DA288A20ABEC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24640" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="244">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2847,7 +2847,7 @@
   </si>
   <si>
     <t>定投护城河</t>
-    <rPh sb="0" eb="62">
+    <rPh sb="0" eb="5">
       <t>ben'ye</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2856,6 +2856,32 @@
     <t>内圣外王</t>
     <rPh sb="0" eb="4">
       <t>nei'sheng'wai'wang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2752</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己的修行不能停，自己要求智慧，无漏的智慧</t>
+    <rPh sb="0" eb="1">
+      <t>wang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系修婷谈未来</t>
+    <rPh sb="0" eb="2">
+      <t>lian'xi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3337,9 +3363,9 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1420" topLeftCell="A3"/>
+      <pane ySplit="1420" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="I1" sqref="I1:J1"/>
-      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -4326,6 +4352,9 @@
       <c r="F63" s="12" t="s">
         <v>234</v>
       </c>
+      <c r="G63" s="12" t="s">
+        <v>239</v>
+      </c>
       <c r="I63" s="11" t="s">
         <v>231</v>
       </c>
@@ -4356,15 +4385,33 @@
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:10">
       <c r="A65" s="12">
         <v>20180304</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="13">
+        <v>26.5</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H65" s="11">
+        <v>6</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="12">
         <v>20180305</v>
       </c>
@@ -4372,7 +4419,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:10">
       <c r="A67" s="12">
         <v>20180306</v>
       </c>
@@ -4380,7 +4427,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:10">
       <c r="A68" s="12">
         <v>20180307</v>
       </c>
@@ -4388,7 +4435,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:10">
       <c r="A69" s="12">
         <v>20180308</v>
       </c>
@@ -4396,7 +4443,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:10">
       <c r="A70" s="12">
         <v>20180309</v>
       </c>
@@ -4404,7 +4451,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:10">
       <c r="A71" s="12">
         <v>20180310</v>
       </c>
@@ -4412,7 +4459,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:10">
       <c r="A72" s="12">
         <v>20180311</v>
       </c>
@@ -4420,7 +4467,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:10">
       <c r="A73" s="12">
         <v>20180312</v>
       </c>
@@ -4428,7 +4475,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:10">
       <c r="A74" s="12">
         <v>20180313</v>
       </c>
@@ -4436,7 +4483,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:10">
       <c r="A75" s="12">
         <v>20180314</v>
       </c>
@@ -4444,7 +4491,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:10">
       <c r="A76" s="12">
         <v>20180315</v>
       </c>

--- a/拓展实践.xlsx
+++ b/拓展实践.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{C3EF9ED8-605E-234A-8FAF-DA288A20ABEC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{55E0965F-61CD-4B43-9AC2-5C09C8327453}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24640" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="245">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2883,6 +2883,10 @@
     <rPh sb="0" eb="2">
       <t>lian'xi</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2300</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3364,8 +3368,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1420" topLeftCell="A58" activePane="bottomLeft"/>
-      <selection activeCell="I1" sqref="I1:J1"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+      <selection activeCell="E2" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -4397,6 +4401,9 @@
       </c>
       <c r="D65" s="7" t="s">
         <v>240</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>241</v>

--- a/拓展实践.xlsx
+++ b/拓展实践.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{55E0965F-61CD-4B43-9AC2-5C09C8327453}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20903C4-EA18-344F-A217-5FD9F61B72FE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24640" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="每日反思内容" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="246">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2887,6 +2886,10 @@
   </si>
   <si>
     <t>2300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3073</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3369,7 +3372,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1420" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
+      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -4424,6 +4427,12 @@
       </c>
       <c r="B66" s="7" t="s">
         <v>127</v>
+      </c>
+      <c r="C66" s="13">
+        <v>26.5</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:10">

--- a/拓展实践.xlsx
+++ b/拓展实践.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20903C4-EA18-344F-A217-5FD9F61B72FE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EEC3BEA-DFAB-7042-A555-7420BE69720F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24640" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="每日反思内容" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="248">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2890,6 +2891,20 @@
   </si>
   <si>
     <t>3073</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有认真完成自己今天的工作期许，等什么呢？等什么时候真的能够合适呢？</t>
+    <rPh sb="0" eb="34">
+      <t>zi'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟父亲视频谈论了陈佩斯父子两人的人生职业选择</t>
+    <rPh sb="0" eb="1">
+      <t>ne</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3370,9 +3385,9 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1420" topLeftCell="A58" activePane="bottomLeft"/>
-      <selection activeCell="E2" sqref="E1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
+      <pane ySplit="1420" topLeftCell="A52"/>
+      <selection activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -3455,6 +3470,12 @@
       <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="12">
@@ -3469,6 +3490,12 @@
       <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="12">
@@ -3486,6 +3513,12 @@
       <c r="G5" s="12" t="s">
         <v>120</v>
       </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="9">
@@ -3502,6 +3535,12 @@
         <v>13</v>
       </c>
       <c r="G6" s="9"/>
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="12">
@@ -3516,6 +3555,12 @@
       <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="12">
@@ -3533,6 +3578,12 @@
       <c r="G8" s="12" t="s">
         <v>121</v>
       </c>
+      <c r="I8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="12">
@@ -3550,6 +3601,12 @@
       <c r="G9" s="12" t="s">
         <v>122</v>
       </c>
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="12">
@@ -3564,6 +3621,12 @@
       <c r="F10" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="12">
@@ -3581,6 +3644,12 @@
       <c r="G11" s="12" t="s">
         <v>120</v>
       </c>
+      <c r="I11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="12">
@@ -3595,6 +3664,12 @@
       <c r="F12" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="I12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="12">
@@ -3609,6 +3684,12 @@
       <c r="F13" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="I13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="12">
@@ -3626,6 +3707,12 @@
       <c r="G14" s="12" t="s">
         <v>123</v>
       </c>
+      <c r="I14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="12">
@@ -3640,6 +3727,12 @@
       <c r="F15" s="12" t="s">
         <v>47</v>
       </c>
+      <c r="I15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="12">
@@ -3654,8 +3747,14 @@
       <c r="F16" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="12">
         <v>20180115</v>
       </c>
@@ -3671,8 +3770,14 @@
       <c r="G17" s="12" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="12">
         <v>20180116</v>
       </c>
@@ -3685,8 +3790,14 @@
       <c r="F18" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="12">
         <v>20180117</v>
       </c>
@@ -3702,8 +3813,14 @@
       <c r="G19" s="12" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="12">
         <v>20180118</v>
       </c>
@@ -3716,8 +3833,14 @@
       <c r="F20" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="12">
         <v>20180119</v>
       </c>
@@ -3730,8 +3853,14 @@
       <c r="F21" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="12">
         <v>20180120</v>
       </c>
@@ -3744,8 +3873,14 @@
       <c r="F22" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="12">
         <v>20180121</v>
       </c>
@@ -3761,8 +3896,14 @@
       <c r="G23" s="12" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="12">
         <v>20180122</v>
       </c>
@@ -3775,8 +3916,14 @@
       <c r="F24" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="12">
         <v>20180123</v>
       </c>
@@ -3792,8 +3939,14 @@
       <c r="G25" s="12" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="12">
         <v>20180124</v>
       </c>
@@ -3806,8 +3959,14 @@
       <c r="F26" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="12">
         <v>20180125</v>
       </c>
@@ -3823,8 +3982,14 @@
       <c r="G27" s="12" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="12">
         <v>20180126</v>
       </c>
@@ -3837,8 +4002,14 @@
       <c r="F28" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="I28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="12">
         <v>20180127</v>
       </c>
@@ -3854,8 +4025,14 @@
       <c r="G29" s="12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="I29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="12">
         <v>20180128</v>
       </c>
@@ -3868,8 +4045,14 @@
       <c r="F30" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="I30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="12">
         <v>20180129</v>
       </c>
@@ -3885,8 +4068,14 @@
       <c r="G31" s="12" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="12">
         <v>20180130</v>
       </c>
@@ -3898,6 +4087,12 @@
       </c>
       <c r="F32" s="12" t="s">
         <v>110</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4429,10 +4624,22 @@
         <v>127</v>
       </c>
       <c r="C66" s="13">
-        <v>26.5</v>
+        <v>30.5</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>245</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="H66" s="11">
+        <v>6</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4441,6 +4648,9 @@
       </c>
       <c r="B67" s="7" t="s">
         <v>127</v>
+      </c>
+      <c r="C67" s="13">
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4824,7 +5034,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/拓展实践.xlsx
+++ b/拓展实践.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EEC3BEA-DFAB-7042-A555-7420BE69720F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8A3E10-E78C-F842-825A-579FB95BA241}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24640" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="每日反思内容" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="252">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2904,6 +2903,31 @@
     <t>跟父亲视频谈论了陈佩斯父子两人的人生职业选择</t>
     <rPh sb="0" eb="1">
       <t>ne</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1672</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300</t>
+    <rPh sb="0" eb="2">
+      <t>zi'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天还是没有打代码，我估计是搬了新宿舍之后还是会打的，但是自己好歹今天把自己的概念整理出来了</t>
+    <rPh sb="0" eb="2">
+      <t>jin'tian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷谈数据分析学习的事情</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3385,9 +3409,9 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1420" topLeftCell="A52"/>
+      <pane ySplit="1420" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -4651,6 +4675,24 @@
       </c>
       <c r="C67" s="13">
         <v>24</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="H67" s="11">
+        <v>4</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:10">

--- a/拓展实践.xlsx
+++ b/拓展实践.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8A3E10-E78C-F842-825A-579FB95BA241}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E569F71-C71E-7D4F-904B-C275CE0830C6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24640" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="255">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2929,6 +2929,24 @@
     <rPh sb="0" eb="1">
       <t>gen</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是没写代码，实在是不行啊这样</t>
+    <rPh sb="0" eb="2">
+      <t>hai'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷视频一小时</t>
+    <rPh sb="0" eb="5">
+      <t>gen'xiu'ting'shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2609</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3411,7 +3429,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1420" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -4701,6 +4719,24 @@
       </c>
       <c r="B68" s="7" t="s">
         <v>127</v>
+      </c>
+      <c r="C68" s="13">
+        <v>36.5</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="H68" s="11">
+        <v>4</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:10">

--- a/拓展实践.xlsx
+++ b/拓展实践.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E569F71-C71E-7D4F-904B-C275CE0830C6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263A57E8-9051-5F49-9A11-1A428031A1C1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24640" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2018打卡" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="259">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2947,6 +2947,28 @@
   </si>
   <si>
     <t>2609</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1480</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天正式翻开代码行准备奋战了</t>
+    <rPh sb="0" eb="2">
+      <t>jin'tian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷聊天</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3046,7 +3068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3090,6 +3112,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3427,9 +3455,9 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1420" topLeftCell="A52" activePane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <pane ySplit="1420" topLeftCell="A60" activePane="bottomLeft"/>
+      <selection activeCell="G2" sqref="G1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -3440,32 +3468,32 @@
     <col min="4" max="4" width="8.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="10" style="11" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="10" style="16" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="16" customWidth="1"/>
     <col min="11" max="16384" width="11.6640625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="19" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="J1" s="19"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="12" t="s">
@@ -3486,7 +3514,7 @@
       <c r="F2" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="15" t="s">
         <v>129</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -3512,10 +3540,10 @@
       <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3532,10 +3560,10 @@
       <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3552,13 +3580,13 @@
       <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3577,10 +3605,10 @@
         <v>13</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3597,10 +3625,10 @@
       <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3617,13 +3645,13 @@
       <c r="F8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3640,13 +3668,13 @@
       <c r="F9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3663,10 +3691,10 @@
       <c r="F10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3683,13 +3711,13 @@
       <c r="F11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3706,10 +3734,10 @@
       <c r="F12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3726,10 +3754,10 @@
       <c r="F13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3746,13 +3774,13 @@
       <c r="F14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3769,10 +3797,10 @@
       <c r="F15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3789,10 +3817,10 @@
       <c r="F16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3809,13 +3837,13 @@
       <c r="F17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3832,10 +3860,10 @@
       <c r="F18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3852,13 +3880,13 @@
       <c r="F19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="15" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3875,10 +3903,10 @@
       <c r="F20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="15" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3895,10 +3923,10 @@
       <c r="F21" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="15" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3915,10 +3943,10 @@
       <c r="F22" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="15" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3935,13 +3963,13 @@
       <c r="F23" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3958,10 +3986,10 @@
       <c r="F24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="15" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3978,13 +4006,13 @@
       <c r="F25" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4001,10 +4029,10 @@
       <c r="F26" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="15" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4021,13 +4049,13 @@
       <c r="F27" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="15" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4044,10 +4072,10 @@
       <c r="F28" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="15" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4064,13 +4092,13 @@
       <c r="F29" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4087,10 +4115,10 @@
       <c r="F30" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="15" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4107,13 +4135,13 @@
       <c r="F31" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="15" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4130,10 +4158,10 @@
       <c r="F32" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="15" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4220,7 +4248,7 @@
       <c r="F38" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4237,7 +4265,7 @@
       <c r="F39" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="15" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4444,16 +4472,16 @@
       <c r="F57" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="16">
         <v>1</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="16" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4470,10 +4498,10 @@
       <c r="F58" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="I58" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="16" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4490,13 +4518,13 @@
       <c r="F59" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="16">
         <v>6</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I59" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="16" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4514,16 +4542,16 @@
       <c r="F60" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="G60" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="16">
         <v>6</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="I60" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="J60" s="16" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4544,13 +4572,13 @@
       <c r="F61" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="16">
         <v>6</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="I61" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="J61" s="16" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4570,13 +4598,13 @@
       <c r="F62" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="16">
         <v>2</v>
       </c>
-      <c r="I62" s="11" t="s">
+      <c r="I62" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="J62" s="16" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4596,13 +4624,13 @@
       <c r="F63" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="G63" s="12" t="s">
+      <c r="G63" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="I63" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="J63" s="16" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4622,10 +4650,10 @@
       <c r="F64" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="I64" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="J64" s="16" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4645,16 +4673,16 @@
       <c r="F65" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="G65" s="12" t="s">
+      <c r="G65" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="16">
         <v>6</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="I65" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="16" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4674,13 +4702,13 @@
       <c r="F66" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="16">
         <v>6</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="16" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4700,16 +4728,16 @@
       <c r="F67" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="G67" s="12" t="s">
+      <c r="G67" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="16">
         <v>4</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="I67" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="16" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4729,13 +4757,13 @@
       <c r="F68" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="16">
         <v>4</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="I68" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="J68" s="16" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4745,6 +4773,30 @@
       </c>
       <c r="B69" s="7" t="s">
         <v>127</v>
+      </c>
+      <c r="C69" s="13">
+        <v>25</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H69" s="16">
+        <v>2</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4949,10 +5001,10 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="J26" s="19"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="11" t="s">
@@ -5125,10 +5177,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1" t="s">
         <v>114</v>
       </c>

--- a/拓展实践.xlsx
+++ b/拓展实践.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263A57E8-9051-5F49-9A11-1A428031A1C1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A923F2-9F5B-1A4D-A78A-3D8ED3996348}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2018打卡" sheetId="1" r:id="rId1"/>
-    <sheet name="财务记账" sheetId="5" r:id="rId2"/>
-    <sheet name="每日反思内容" sheetId="4" r:id="rId3"/>
+    <sheet name="每日反思内容" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -27,24 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="259">
-  <si>
-    <t>联系亲友</t>
-    <rPh sb="0" eb="1">
-      <t>lian'xi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qin'you</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1900李一诺</t>
-    <rPh sb="4" eb="5">
-      <t>li'yi'nuo</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="176">
   <si>
     <t>联系父母</t>
     <rPh sb="0" eb="1">
@@ -136,13 +118,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1100概念本</t>
-    <rPh sb="4" eb="5">
-      <t>gai'nian'ben</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>平安回沪</t>
     <rPh sb="0" eb="1">
       <t>ping'an'h</t>
@@ -230,16 +205,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1500概念本</t>
-    <rPh sb="4" eb="5">
-      <t>gai'nian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ben</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>家里群回复</t>
     <rPh sb="0" eb="1">
       <t>jia'li'qun</t>
@@ -303,9 +268,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1200金灿荣</t>
-  </si>
-  <si>
     <t>联系同学</t>
   </si>
   <si>
@@ -423,13 +385,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1100大熊</t>
-    <rPh sb="4" eb="5">
-      <t>da'xiong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟同学吃饭</t>
     <rPh sb="0" eb="1">
       <t>gen'tong'xue</t>
@@ -637,13 +592,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2300大熊</t>
-    <rPh sb="4" eb="5">
-      <t>da'xiong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟父亲打电话</t>
     <rPh sb="0" eb="1">
       <t>gen</t>
@@ -731,13 +679,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1300能力圈</t>
-    <rPh sb="4" eb="5">
-      <t>neng'li'quan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟杨玉川打电话</t>
     <rPh sb="0" eb="1">
       <t>gen</t>
@@ -819,13 +760,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0900心理</t>
-    <rPh sb="4" eb="5">
-      <t>xin'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟修婷聊运动</t>
     <rPh sb="0" eb="1">
       <t>gen'xiu'ting</t>
@@ -940,13 +874,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1400能力圈</t>
-    <rPh sb="4" eb="5">
-      <t>neng'li'quan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟修婷打电话</t>
     <rPh sb="0" eb="1">
       <t>gen</t>
@@ -1025,13 +952,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1000能力圈</t>
-    <rPh sb="4" eb="5">
-      <t>neng'li'quan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟父母和修婷视频</t>
     <rPh sb="0" eb="1">
       <t>gen'fu'mu</t>
@@ -1083,13 +1003,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2300李笑来</t>
-    <rPh sb="4" eb="5">
-      <t>li'xiao'lai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟父母视频</t>
     <rPh sb="0" eb="1">
       <t>gen'fu'mu</t>
@@ -1195,13 +1108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2000成甲</t>
-    <rPh sb="4" eb="5">
-      <t>cheng'jia</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟修婷道歉不应该转发妖艳贱货的微博</t>
     <rPh sb="0" eb="1">
       <t>gen'xiu'ting</t>
@@ -1301,13 +1207,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1000成甲</t>
-    <rPh sb="4" eb="5">
-      <t>cheng'jia</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟修婷聊天</t>
     <rPh sb="0" eb="1">
       <t>gen</t>
@@ -1467,13 +1366,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1200瑞奇</t>
-    <rPh sb="4" eb="5">
-      <t>rui'qi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟修婷视频谈工作和选择</t>
     <rPh sb="0" eb="1">
       <t>gen'xiu'ting</t>
@@ -1588,13 +1480,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1100能力圈</t>
-    <rPh sb="4" eb="5">
-      <t>neng'li'quan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟修婷视频谈工作</t>
     <rPh sb="0" eb="1">
       <t>gen'xiu'ting</t>
@@ -1840,13 +1725,6 @@
     </rPh>
     <rPh sb="42" eb="43">
       <t>shen'me</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300芒格</t>
-    <rPh sb="0" eb="3">
-      <t>neng'li'quan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1872,13 +1750,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1000成甲</t>
-    <rPh sb="0" eb="2">
-      <t>cheng'jia</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟父母视频跟韩秋谈买房</t>
     <rPh sb="0" eb="1">
       <t>gen</t>
@@ -1900,13 +1771,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1000能力圈</t>
-    <rPh sb="0" eb="3">
-      <t>neng'li'quan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟修婷聊天</t>
     <rPh sb="0" eb="5">
       <t>shen'shi'zi'ji</t>
@@ -1928,13 +1792,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1000能力圈</t>
-    <rPh sb="0" eb="1">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成功开始论文和算法的道路</t>
     <rPh sb="0" eb="4">
       <t>cheng'gong'kai'shi</t>
@@ -1949,13 +1806,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1000能力圈</t>
-    <rPh sb="0" eb="3">
-      <t>nneg'li'quan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>改签车票跟父母交流</t>
     <rPh sb="0" eb="9">
       <t>gen'xiu'ting</t>
@@ -1977,13 +1827,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0900普世智慧</t>
-    <rPh sb="0" eb="4">
-      <t>pu'shi'zhi'hui</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟父母汇报收益</t>
     <rPh sb="0" eb="3">
       <t>gen'fu'mu</t>
@@ -2005,13 +1848,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0900阳志平</t>
-    <rPh sb="0" eb="4">
-      <t>pu'shi'zhi'hui</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>给修婷买衣服</t>
     <rPh sb="0" eb="1">
       <t>gen</t>
@@ -2096,13 +1932,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0900普世智慧</t>
-    <rPh sb="0" eb="4">
-      <t>pu'shi'zhi'hiu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟修婷音频</t>
     <rPh sb="0" eb="3">
       <t>gen'xiu'ting</t>
@@ -2124,13 +1953,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1500能力圈</t>
-    <rPh sb="0" eb="2">
-      <t>gai'nian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>看VSI系列</t>
     <rPh sb="0" eb="1">
       <t>kan</t>
@@ -2145,33 +1967,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>反思工程</t>
-    <rPh sb="0" eb="1">
-      <t>fan'si</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gong'chengjie'guo</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>时间定投</t>
     <rPh sb="0" eb="1">
       <t>du'shujian'shending'tougeng'zuo</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2300能力圈</t>
-    <rPh sb="0" eb="3">
-      <t>neng'li'quan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100能力圈</t>
-    <rPh sb="0" eb="3">
-      <t>neng'li'quan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2190,13 +1988,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>自省吾身</t>
-    <rPh sb="0" eb="1">
-      <t>fan'sigong'chengjie'guo</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2225,13 +2016,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-150</t>
-  </si>
-  <si>
-    <t>-150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>健身定投</t>
     <rPh sb="0" eb="1">
       <t>shen</t>
@@ -2239,18 +2023,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容输出</t>
-    <rPh sb="0" eb="4">
-      <t>shu'chu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-156</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2333,17 +2106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-266.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500政经</t>
-    <rPh sb="0" eb="2">
-      <t>zheng'jing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>反省自身</t>
     <rPh sb="0" eb="4">
       <t>lian'xi</t>
@@ -2394,20 +2156,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0900王德峰</t>
-    <rPh sb="0" eb="3">
-      <t>wang'de'feng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100张宏杰</t>
-    <rPh sb="0" eb="3">
-      <t>zeng'guo'fan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>今天自己的松懈想法渐渐有了，自己还是得认真起来</t>
     <rPh sb="0" eb="23">
       <t>jin'tian</t>
@@ -2426,13 +2174,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0800滚雪球</t>
-    <rPh sb="0" eb="3">
-      <t>gun'xue'qiu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20180226</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2455,13 +2196,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0900能力圈</t>
-    <rPh sb="0" eb="3">
-      <t>neng'li'quan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>自己没能做到多管齐下当中的小内容也不波动，这是一个必须我要注意的点，大的波动我控制不了，小的实际上是可以的，追求的就是多个领域增长情况下就是要绝对定投，否则英语这样的内容永远灭有时间和机会</t>
     <rPh sb="0" eb="2">
       <t>zi'j</t>
@@ -2469,13 +2203,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>被动开支</t>
-    <rPh sb="0" eb="4">
-      <t>jin'qian'kai'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>主动开支</t>
     <rPh sb="0" eb="4">
       <t>zhu'dong'kai'zhi</t>
@@ -2483,278 +2210,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件</t>
-    <rPh sb="0" eb="2">
-      <t>zao'fan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迅雷</t>
-    <rPh sb="0" eb="2">
-      <t>xun'lei</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>番茄</t>
-    <rPh sb="0" eb="2">
-      <t>fan'qie</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月开支</t>
-    <rPh sb="0" eb="2">
-      <t>mei'yue</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>锅盔</t>
-    <rPh sb="0" eb="2">
-      <t>guo'kui</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭</t>
-    <rPh sb="0" eb="1">
-      <t>zao'fan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚水果</t>
-    <rPh sb="0" eb="1">
-      <t>fan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子设备</t>
-    <rPh sb="0" eb="4">
-      <t>dian'zi'she'bei</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费</t>
-    <rPh sb="0" eb="2">
-      <t>hua'fei</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣食住行</t>
-    <rPh sb="0" eb="4">
-      <t>yi'shi'zhu'xing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动支出</t>
-    <rPh sb="0" eb="4">
-      <t>bei'dong'zhi'chu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣</t>
-    <rPh sb="0" eb="1">
-      <t>yi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋</t>
-    <rPh sb="0" eb="1">
-      <t>nei</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>双星</t>
-    <rPh sb="0" eb="2">
-      <t>shuang'xing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本不换</t>
-    <rPh sb="0" eb="4">
-      <t>ji'ben'bu'huan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行</t>
-    <rPh sb="0" eb="1">
-      <t>shi'wu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预防打车</t>
-    <rPh sb="0" eb="1">
-      <t>xing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>住</t>
-    <rPh sb="0" eb="1">
-      <t>zhu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时预计</t>
-    <rPh sb="0" eb="1">
-      <t>zhu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么让地铁通勤时间为自己赚钱</t>
-    <rPh sb="0" eb="3">
-      <t>zen'em'rang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月</t>
-    <rPh sb="0" eb="1">
-      <t>yue</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年</t>
-    <rPh sb="0" eb="1">
-      <t>yue</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>咖啡</t>
-    <rPh sb="0" eb="1">
-      <t>nian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动收入</t>
-    <rPh sb="0" eb="4">
-      <t>zhu'dong'shou'ru</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月</t>
-    <rPh sb="0" eb="2">
-      <t>mei'yue</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1年</t>
-    <rPh sb="0" eb="2">
-      <t>mei'nian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10年</t>
-    <rPh sb="0" eb="1">
-      <t>nian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年10%回报</t>
-    <rPh sb="0" eb="1">
-      <t>nian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>想要</t>
-    <rPh sb="0" eb="2">
-      <t>xiang'yao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要</t>
-    <rPh sb="0" eb="2">
-      <t>xu'yao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命标签</t>
-    <rPh sb="0" eb="2">
-      <t>sheng'ming'biaoqian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月</t>
-    <rPh sb="0" eb="1">
-      <t>yue</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
-    <t>PCEF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标普500</t>
-    <rPh sb="0" eb="1">
-      <t>yue</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6187</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2838,20 +2293,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>输出滚雪球</t>
-    <rPh sb="0" eb="1">
-      <t>ren'zhihu'cheng'he</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定投护城河</t>
-    <rPh sb="0" eb="5">
-      <t>ben'ye</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内圣外王</t>
     <rPh sb="0" eb="4">
       <t>nei'sheng'wai'wang</t>
@@ -2969,6 +2410,35 @@
     <rPh sb="0" eb="1">
       <t>gen</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反思输出</t>
+    <rPh sb="0" eb="88">
+      <t>shu'chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚雪球</t>
+    <rPh sb="0" eb="1">
+      <t>ren'zhihu'cheng'he</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护城河</t>
+    <rPh sb="0" eb="5">
+      <t>ben'ye</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1857</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5209</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3036,7 +2506,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3053,22 +2523,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3087,12 +2548,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3100,15 +2555,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3126,7 +2572,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3135,7 +2584,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3452,1415 +2904,806 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C748DA46-3392-674C-A8DF-D4E1FF50AE8C}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1420" topLeftCell="A60" activePane="bottomLeft"/>
-      <selection activeCell="G2" sqref="G1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+      <pane ySplit="2440" topLeftCell="A65" activePane="bottomLeft"/>
+      <selection sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="10" style="16" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="11.6640625" style="12"/>
+    <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10" style="15" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" style="19"/>
+    <col min="10" max="16384" width="11.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="12">
         <v>20180101</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="14">
         <v>5779</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="12">
         <v>20180102</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="14">
         <v>3529</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="12">
         <v>20180103</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="14">
         <v>3256</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="9">
+      <c r="F5" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7">
         <v>20180104</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="8">
         <v>3450</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="I6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="12">
         <v>20180105</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="14">
         <v>3351</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="12">
         <v>20180106</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="14">
         <v>3298</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="F8" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="12">
         <v>20180107</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="14">
         <v>3638</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="F9" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="12">
         <v>20180108</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="14">
         <v>3968</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="12">
         <v>20180109</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="14">
         <v>3193</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="F11" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="12">
         <v>20180110</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="14">
         <v>4138</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="12">
         <v>20180111</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="14">
         <v>3535</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="12">
         <v>20180112</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" s="14">
         <v>4554</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="F14" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="12">
         <v>20180113</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C15" s="14">
         <v>7279</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="12">
         <v>20180114</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" s="14">
         <v>4680</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="12">
         <v>20180115</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C17" s="14">
         <v>4776</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="F17" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="12">
         <v>20180116</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C18" s="14">
         <v>5714</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="12">
         <v>20180117</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19" s="14">
         <v>3295</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="F19" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="12">
         <v>20180118</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C20" s="14">
         <v>4580</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="12">
         <v>20180119</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="C21" s="14">
         <v>4389</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="12">
         <v>20180120</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22" s="14">
         <v>3753</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="12">
         <v>20180121</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C23" s="14">
         <v>3713</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="F23" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="12">
         <v>20180122</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="C24" s="14">
         <v>3110</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="12">
         <v>20180123</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="C25" s="14">
         <v>4399</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="F25" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="12">
         <v>20180124</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="C26" s="14">
         <v>3266</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="12">
         <v>20180125</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="C27" s="14">
         <v>3205</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="F27" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="12">
         <v>20180126</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="C28" s="14">
         <v>4677</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="12">
         <v>20180127</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="C29" s="14">
         <v>3119</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="F29" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="12">
         <v>20180128</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="C30" s="14">
         <v>3587</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="12">
         <v>20180129</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C31" s="14">
         <v>3948</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="F31" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="12">
         <v>20180130</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C32" s="14">
         <v>3299</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="12">
         <v>20180131</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C33" s="14">
         <v>3449</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="12">
         <v>20180201</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="C34" s="14">
         <v>3274</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="12">
         <v>20180202</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="7">
+      <c r="C35" s="14">
         <v>3126</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="12">
         <v>20180203</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="C36" s="14">
         <v>3318</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="12">
         <v>20180204</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="C37" s="14">
         <v>3246</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="12">
         <v>20180205</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="C38" s="14">
         <v>3138</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="F38" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="12">
         <v>20180206</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="7">
+      <c r="C39" s="14">
         <v>3535</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="F39" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="12">
         <v>20180207</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="C40" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="12">
         <v>20180208</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="C41" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="12">
         <v>20180209</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="C42" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="12">
         <v>20180210</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="C43" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="12">
         <v>20180211</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="C44" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>111</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="12">
         <v>20180213</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="C46" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="12">
         <v>20180214</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="C47" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="12">
         <v>20180215</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="C48" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="12">
         <v>20180216</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="C49" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="12">
         <v>20180217</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="C50" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="12">
         <v>20180218</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="C51" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="12">
         <v>20180219</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="C52" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="12">
         <v>20180220</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="C53" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="12">
         <v>20180221</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="C54" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="12">
         <v>20180222</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="C55" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="12">
         <v>20180223</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="C56" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="12">
         <v>20180224</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="H57" s="16">
+      <c r="C57" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" s="15">
         <v>1</v>
       </c>
-      <c r="I57" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="J57" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="12">
         <v>20180225</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="J58" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="C58" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="H59" s="16">
+        <v>130</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" s="15">
         <v>6</v>
       </c>
-      <c r="I59" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="12">
         <v>20180227</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G60" s="15" t="s">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H60" s="16">
+      <c r="F60" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" s="15">
         <v>6</v>
       </c>
-      <c r="I60" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="12">
         <v>20180228</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="13">
+      <c r="B61" s="18">
         <f>29+13</f>
         <v>42</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H61" s="16">
+      <c r="C61" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G61" s="15">
         <v>6</v>
       </c>
-      <c r="I61" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="J61" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="12">
         <v>20180301</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="13">
+      <c r="B62" s="18">
         <v>24</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H62" s="16">
+      <c r="C62" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" s="15">
         <v>2</v>
       </c>
-      <c r="I62" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="J62" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="12">
         <v>20180302</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="13">
+      <c r="B63" s="18">
         <v>28</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="J63" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="C63" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="12">
         <v>20180303</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="13">
+      <c r="B64" s="18">
         <v>24</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="J64" s="16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="C64" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="12">
         <v>20180304</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="13">
+      <c r="B65" s="18">
         <v>26.5</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="H65" s="16">
+      <c r="C65" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G65" s="15">
         <v>6</v>
       </c>
-      <c r="I65" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="J65" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="12">
         <v>20180305</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="13">
+      <c r="B66" s="18">
         <v>30.5</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="H66" s="16">
+      <c r="C66" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="15">
         <v>6</v>
       </c>
-      <c r="I66" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="12">
         <v>20180306</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="13">
+      <c r="B67" s="18">
         <v>24</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="H67" s="16">
+      <c r="C67" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G67" s="15">
         <v>4</v>
       </c>
-      <c r="I67" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="12">
         <v>20180307</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" s="13">
+      <c r="B68" s="18">
         <v>36.5</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="H68" s="16">
+      <c r="C68" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G68" s="15">
         <v>4</v>
       </c>
-      <c r="I68" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="12">
         <v>20180308</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" s="13">
+      <c r="B69" s="18">
         <v>25</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="H69" s="16">
+      <c r="C69" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G69" s="15">
         <v>2</v>
       </c>
-      <c r="I69" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="J69" s="16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="12">
         <v>20180309</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="B70" s="18">
+        <v>35</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="12">
         <v>20180310</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="B71" s="18">
+        <v>25</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="12">
         <v>20180311</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="12">
         <v>20180312</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="12">
         <v>20180313</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="12">
         <v>20180314</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="12">
         <v>20180315</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>127</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4869,331 +3712,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57972FDF-54D8-D94D-A9BD-2804F249C3C4}">
-  <dimension ref="A2:J45"/>
-  <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="B2" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="11">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="11">
-        <v>50</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="11">
-        <v>3000</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="D18" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="11">
-        <v>13</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="G18" s="11">
-        <v>75</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="I18" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="D19" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" s="11">
-        <v>6</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="F20" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G20" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="I26" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="J26" s="21"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="B33" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B34" s="11">
-        <v>1</v>
-      </c>
-      <c r="C34" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B35" s="11">
-        <f>$B34*1.006</f>
-        <v>1.006</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B36" s="11">
-        <f>$B35*1.006</f>
-        <v>1.0120359999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B37" s="11">
-        <f t="shared" ref="B37:B45" si="0">$B36*1.006</f>
-        <v>1.0181082159999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" s="11">
-        <f t="shared" si="0"/>
-        <v>1.024216865296</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B39" s="11">
-        <f t="shared" si="0"/>
-        <v>1.030362166487776</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="11">
-        <f t="shared" si="0"/>
-        <v>1.0365443394867027</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B41" s="11">
-        <f t="shared" si="0"/>
-        <v>1.0427636055236229</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="11">
-        <f t="shared" si="0"/>
-        <v>1.0490201871567646</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B43" s="11">
-        <f t="shared" si="0"/>
-        <v>1.0553143082797052</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B44" s="11">
-        <f t="shared" si="0"/>
-        <v>1.0616461941293833</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B45" s="11">
-        <f t="shared" si="0"/>
-        <v>1.0680160712941595</v>
-      </c>
-      <c r="C45" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I26:J26"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F30C675-B241-D549-A272-FD38FEA0E583}">
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C32"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="88.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="11" customWidth="1"/>
     <col min="4" max="4" width="51.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1"/>
-      <c r="B1" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="22"/>
+      <c r="B1" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="17"/>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -5201,772 +3753,762 @@
       <c r="A3" s="3">
         <v>20180101</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>20180102</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>20180103</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>20180104</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>20180105</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>20180106</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>20180107</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
+      <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>20180108</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
+      <c r="B10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>20180109</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
+      <c r="B11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>20180110</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
+      <c r="B12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>20180111</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
+      <c r="B13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>20180112</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
+      <c r="B14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>20180113</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>48</v>
+      <c r="B15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>20180114</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>20180115</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>56</v>
+      <c r="B17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>20180116</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>60</v>
+      <c r="B18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>20180117</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>64</v>
+      <c r="B19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>20180118</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>67</v>
+      <c r="B20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>20180119</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>71</v>
+      <c r="B21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>20180120</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>75</v>
+      <c r="B22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>20180121</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>79</v>
+      <c r="B23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>20180122</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>71</v>
+      <c r="B24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>20180123</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>86</v>
+      <c r="B25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>20180124</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>90</v>
+      <c r="B26" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>20180125</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>94</v>
+      <c r="B27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>20180126</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>97</v>
+      <c r="B28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>20180127</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>100</v>
+      <c r="B29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>20180128</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>103</v>
+      <c r="B30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>20180129</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>107</v>
+      <c r="B31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>20180130</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>71</v>
+      <c r="B32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3">
         <v>20180131</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3">
         <v>20180201</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3">
         <v>20180202</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3">
         <v>20180203</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3">
         <v>20180204</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3">
         <v>20180205</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3">
         <v>20180206</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3">
         <v>20180207</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3">
         <v>20180208</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3">
         <v>20180209</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3">
         <v>20180210</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3">
         <v>20180211</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3">
         <v>20180212</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3">
         <v>20180213</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3">
         <v>20180214</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3">
         <v>20180215</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3">
         <v>20180216</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3">
         <v>20180217</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3">
         <v>20180218</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3">
         <v>20180219</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3">
         <v>20180220</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3">
         <v>20180221</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3">
         <v>20180222</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3">
         <v>20180223</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3">
         <v>20180224</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="B57" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3">
         <v>20180225</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="B58" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3">
         <v>20180226</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="B59" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3">
         <v>20180227</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="B60" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3">
         <v>20180228</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="B61" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3">
         <v>20180301</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="B62" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3">
         <v>20180302</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="B63" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3">
         <v>20180303</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="B64" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3">
         <v>20180304</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="B65" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3">
         <v>20180305</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="B66" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3">
         <v>20180306</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="B67" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3">
         <v>20180307</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="B68" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3">
         <v>20180308</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="B69" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="3">
         <v>20180309</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="3">
         <v>20180310</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="3">
         <v>20180311</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="3">
         <v>20180312</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="3">
         <v>20180313</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="3">
         <v>20180314</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="3">
         <v>20180315</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
   </sheetData>

--- a/拓展实践.xlsx
+++ b/拓展实践.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A923F2-9F5B-1A4D-A78A-3D8ED3996348}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D34F83FF-783E-EA42-AAB7-8F6002749D27}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="每日反思内容" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="176">
   <si>
     <t>联系父母</t>
     <rPh sb="0" eb="1">
@@ -2414,7 +2415,7 @@
   </si>
   <si>
     <t>反思输出</t>
-    <rPh sb="0" eb="88">
+    <rPh sb="0" eb="4">
       <t>shu'chu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2428,7 +2429,7 @@
   </si>
   <si>
     <t>护城河</t>
-    <rPh sb="0" eb="5">
+    <rPh sb="0" eb="3">
       <t>ben'ye</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2578,16 +2579,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2909,32 +2910,32 @@
     <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
       <pane ySplit="2440" topLeftCell="A65" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="16" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="14" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" style="14" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="13" customWidth="1"/>
     <col min="7" max="7" width="10" style="15" customWidth="1"/>
-    <col min="8" max="9" width="11.6640625" style="19"/>
+    <col min="8" max="9" width="11.6640625" style="17"/>
     <col min="10" max="16384" width="11.6640625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="13" t="s">
         <v>173</v>
       </c>
@@ -2943,7 +2944,7 @@
       <c r="A2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -3491,7 +3492,7 @@
       <c r="A61" s="12">
         <v>20180228</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="16">
         <f>29+13</f>
         <v>42</v>
       </c>
@@ -3506,7 +3507,7 @@
       <c r="A62" s="12">
         <v>20180301</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="16">
         <v>24</v>
       </c>
       <c r="C62" s="14" t="s">
@@ -3520,7 +3521,7 @@
       <c r="A63" s="12">
         <v>20180302</v>
       </c>
-      <c r="B63" s="18">
+      <c r="B63" s="16">
         <v>28</v>
       </c>
       <c r="C63" s="14" t="s">
@@ -3537,7 +3538,7 @@
       <c r="A64" s="12">
         <v>20180303</v>
       </c>
-      <c r="B64" s="18">
+      <c r="B64" s="16">
         <v>24</v>
       </c>
       <c r="C64" s="14" t="s">
@@ -3551,7 +3552,7 @@
       <c r="A65" s="12">
         <v>20180304</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="16">
         <v>26.5</v>
       </c>
       <c r="C65" s="14" t="s">
@@ -3571,7 +3572,7 @@
       <c r="A66" s="12">
         <v>20180305</v>
       </c>
-      <c r="B66" s="18">
+      <c r="B66" s="16">
         <v>30.5</v>
       </c>
       <c r="C66" s="14" t="s">
@@ -3588,7 +3589,7 @@
       <c r="A67" s="12">
         <v>20180306</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67" s="16">
         <v>24</v>
       </c>
       <c r="C67" s="14" t="s">
@@ -3608,7 +3609,7 @@
       <c r="A68" s="12">
         <v>20180307</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B68" s="16">
         <v>36.5</v>
       </c>
       <c r="C68" s="14" t="s">
@@ -3625,7 +3626,7 @@
       <c r="A69" s="12">
         <v>20180308</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="16">
         <v>25</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -3648,7 +3649,7 @@
       <c r="A70" s="12">
         <v>20180309</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="16">
         <v>35</v>
       </c>
       <c r="C70" s="14" t="s">
@@ -3665,11 +3666,17 @@
       <c r="A71" s="12">
         <v>20180310</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="16">
         <v>25</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>175</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>168</v>
@@ -3729,10 +3736,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="1" t="s">
         <v>88</v>
       </c>

--- a/拓展实践.xlsx
+++ b/拓展实践.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D34F83FF-783E-EA42-AAB7-8F6002749D27}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F11E5B-5EED-044D-9985-043981E4A062}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="每日反思内容" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="180">
   <si>
     <t>联系父母</t>
     <rPh sb="0" eb="1">
@@ -2440,6 +2439,22 @@
   </si>
   <si>
     <t>5209</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2441</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1329</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2908,9 +2923,9 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <pane ySplit="2440" topLeftCell="A65" activePane="bottomLeft"/>
+      <pane ySplit="2440" topLeftCell="A66" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -3667,7 +3682,7 @@
         <v>20180310</v>
       </c>
       <c r="B71" s="16">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>175</v>
@@ -3686,10 +3701,28 @@
       <c r="A72" s="12">
         <v>20180311</v>
       </c>
+      <c r="B72" s="16">
+        <v>145</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="12">
         <v>20180312</v>
+      </c>
+      <c r="B73" s="16">
+        <v>195</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:7">

--- a/拓展实践.xlsx
+++ b/拓展实践.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F11E5B-5EED-044D-9985-043981E4A062}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDBD2F9-D2DE-3345-ADD9-863F8E1F3E48}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -2925,7 +2925,7 @@
     <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
       <pane ySplit="2440" topLeftCell="A66" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>

--- a/拓展实践.xlsx
+++ b/拓展实践.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDBD2F9-D2DE-3345-ADD9-863F8E1F3E48}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376DDC18-E941-F547-8D09-6C54C0664828}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -2446,15 +2446,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1329</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50</t>
+    <t>2614</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2925,7 +2925,7 @@
     <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
       <pane ySplit="2440" topLeftCell="A66" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -3708,7 +3708,7 @@
         <v>176</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3719,7 +3719,7 @@
         <v>195</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>179</v>

--- a/拓展实践.xlsx
+++ b/拓展实践.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Library/Containers/com.microsoft.Excel/Data/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376DDC18-E941-F547-8D09-6C54C0664828}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F00A61-FD35-1046-BFF5-497AEA528C30}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="182">
   <si>
     <t>联系父母</t>
     <rPh sb="0" eb="1">
@@ -2455,6 +2455,14 @@
   </si>
   <si>
     <t>90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>430</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2648</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2925,7 +2933,7 @@
     <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
       <pane ySplit="2440" topLeftCell="A66" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -3724,10 +3732,28 @@
       <c r="D73" s="14" t="s">
         <v>179</v>
       </c>
+      <c r="E73" s="12" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="12">
         <v>20180313</v>
+      </c>
+      <c r="B74" s="16">
+        <v>74</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:7">

--- a/拓展实践.xlsx
+++ b/拓展实践.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Library/Containers/com.microsoft.Excel/Data/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F00A61-FD35-1046-BFF5-497AEA528C30}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189F7648-78D1-C848-8359-314C51613BEC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="188">
   <si>
     <t>联系父母</t>
     <rPh sb="0" eb="1">
@@ -2463,6 +2463,30 @@
   </si>
   <si>
     <t>2648</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7274</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2330</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1493</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>578</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2928,21 +2952,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C748DA46-3392-674C-A8DF-D4E1FF50AE8C}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <pane ySplit="2440" topLeftCell="A66" activePane="bottomLeft"/>
+      <pane ySplit="2440" topLeftCell="A72" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="8" style="14" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="13" customWidth="1"/>
     <col min="7" max="7" width="10" style="15" customWidth="1"/>
     <col min="8" max="9" width="11.6640625" style="17"/>
@@ -3755,15 +3779,131 @@
       <c r="F74" s="13" t="s">
         <v>93</v>
       </c>
+      <c r="G74" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="12">
         <v>20180314</v>
       </c>
+      <c r="B75" s="16">
+        <v>71</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="12">
         <v>20180315</v>
+      </c>
+      <c r="B76" s="16">
+        <v>21</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="12">
+        <v>20180316</v>
+      </c>
+      <c r="B77" s="16">
+        <v>21</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="12">
+        <v>20180317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="12">
+        <v>20180318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="12">
+        <v>20180319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="12">
+        <v>20180320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="12">
+        <v>20180321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="12">
+        <v>20180322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="12">
+        <v>20180323</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="12">
+        <v>20180324</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="12">
+        <v>20180325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="12">
+        <v>20180326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="12">
+        <v>20180327</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="12">
+        <v>20180328</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="12">
+        <v>20180329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="12">
+        <v>20180330</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="12">
+        <v>20180331</v>
       </c>
     </row>
   </sheetData>

--- a/拓展实践.xlsx
+++ b/拓展实践.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Library/Containers/com.microsoft.Excel/Data/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189F7648-78D1-C848-8359-314C51613BEC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27D8963-C1E7-6945-98C1-97B4AA2DB359}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="189">
   <si>
     <t>联系父母</t>
     <rPh sb="0" eb="1">
@@ -2487,6 +2487,10 @@
   </si>
   <si>
     <t>578</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5003</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2957,7 +2961,7 @@
     <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
       <pane ySplit="2440" topLeftCell="A72" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -3825,10 +3829,16 @@
         <v>20180316</v>
       </c>
       <c r="B77" s="16">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>188</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>187</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:7">
